--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il4-Il4ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il4-Il4ra.xlsx
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H2">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I2">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J2">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.554145</v>
+        <v>46.9028855</v>
       </c>
       <c r="N2">
-        <v>51.10829</v>
+        <v>93.80577099999999</v>
       </c>
       <c r="O2">
-        <v>0.1379477310300175</v>
+        <v>0.2248968021537497</v>
       </c>
       <c r="P2">
-        <v>0.09797016207862534</v>
+        <v>0.1641136908932902</v>
       </c>
       <c r="Q2">
-        <v>2.1983081006975</v>
+        <v>32.80507414228025</v>
       </c>
       <c r="R2">
-        <v>8.79323240279</v>
+        <v>131.220296569121</v>
       </c>
       <c r="S2">
-        <v>0.002574400202241151</v>
+        <v>0.04106013157672807</v>
       </c>
       <c r="T2">
-        <v>0.001427428558199987</v>
+        <v>0.0240642817285912</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H3">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I3">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J3">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>95.50396499999999</v>
       </c>
       <c r="O3">
-        <v>0.1718515107969138</v>
+        <v>0.1526454509321794</v>
       </c>
       <c r="P3">
-        <v>0.183072823023454</v>
+        <v>0.1670846902488932</v>
       </c>
       <c r="Q3">
-        <v>2.7385921137025</v>
+        <v>22.2659694907025</v>
       </c>
       <c r="R3">
-        <v>16.431552682215</v>
+        <v>133.595816944215</v>
       </c>
       <c r="S3">
-        <v>0.003207117368641262</v>
+        <v>0.02786897030033993</v>
       </c>
       <c r="T3">
-        <v>0.002667377191886717</v>
+        <v>0.02449992463637993</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H4">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I4">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J4">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.960351</v>
+        <v>40.94164133333334</v>
       </c>
       <c r="N4">
-        <v>146.881053</v>
+        <v>122.824924</v>
       </c>
       <c r="O4">
-        <v>0.2643003446557592</v>
+        <v>0.1963129584168644</v>
       </c>
       <c r="P4">
-        <v>0.2815582475698005</v>
+        <v>0.214882852051052</v>
       </c>
       <c r="Q4">
-        <v>4.2118386749505</v>
+        <v>28.63562796038734</v>
       </c>
       <c r="R4">
-        <v>25.271032049703</v>
+        <v>171.813767762324</v>
       </c>
       <c r="S4">
-        <v>0.004932410672170709</v>
+        <v>0.03584148740942336</v>
       </c>
       <c r="T4">
-        <v>0.004102313141580081</v>
+        <v>0.03150865392310249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H5">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I5">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J5">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.509240999999999</v>
+        <v>7.165723</v>
       </c>
       <c r="N5">
-        <v>17.018482</v>
+        <v>14.331446</v>
       </c>
       <c r="O5">
-        <v>0.04593503279947721</v>
+        <v>0.03435925467356532</v>
       </c>
       <c r="P5">
-        <v>0.03262295490364025</v>
+        <v>0.02507294033005582</v>
       </c>
       <c r="Q5">
-        <v>0.7320117116454999</v>
+        <v>5.0118893921365</v>
       </c>
       <c r="R5">
-        <v>2.928046846582</v>
+        <v>20.047557568546</v>
       </c>
       <c r="S5">
-        <v>0.0008572461239191799</v>
+        <v>0.006273079493635559</v>
       </c>
       <c r="T5">
-        <v>0.0004753175507146184</v>
+        <v>0.003676489734539803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H6">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I6">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J6">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.87274933333333</v>
+        <v>49.85523499999999</v>
       </c>
       <c r="N6">
-        <v>89.61824799999999</v>
+        <v>149.565705</v>
       </c>
       <c r="O6">
-        <v>0.1612606483277683</v>
+        <v>0.2390531585124693</v>
       </c>
       <c r="P6">
-        <v>0.1717904136836204</v>
+        <v>0.2616659893836066</v>
       </c>
       <c r="Q6">
-        <v>2.569818197774667</v>
+        <v>34.8700226674925</v>
       </c>
       <c r="R6">
-        <v>15.418909186648</v>
+        <v>209.220136004955</v>
       </c>
       <c r="S6">
-        <v>0.003009469184949547</v>
+        <v>0.04364470302981036</v>
       </c>
       <c r="T6">
-        <v>0.002502992108150142</v>
+        <v>0.03836854837060464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H7">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I7">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J7">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.513986</v>
+        <v>31.85278333333333</v>
       </c>
       <c r="N7">
-        <v>121.541958</v>
+        <v>95.55834999999999</v>
       </c>
       <c r="O7">
-        <v>0.218704732390064</v>
+        <v>0.1527323753111719</v>
       </c>
       <c r="P7">
-        <v>0.2329853987408594</v>
+        <v>0.1671798370931021</v>
       </c>
       <c r="Q7">
-        <v>3.485235902643</v>
+        <v>22.27864890930833</v>
       </c>
       <c r="R7">
-        <v>20.911415415858</v>
+        <v>133.67189345585</v>
       </c>
       <c r="S7">
-        <v>0.004081498862591378</v>
+        <v>0.02788484036342876</v>
       </c>
       <c r="T7">
-        <v>0.003394605099656892</v>
+        <v>0.02451387618699198</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.132881</v>
       </c>
       <c r="I8">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J8">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.554145</v>
+        <v>46.9028855</v>
       </c>
       <c r="N8">
-        <v>51.10829</v>
+        <v>93.80577099999999</v>
       </c>
       <c r="O8">
-        <v>0.1379477310300175</v>
+        <v>0.2248968021537497</v>
       </c>
       <c r="P8">
-        <v>0.09797016207862534</v>
+        <v>0.1641136908932902</v>
       </c>
       <c r="Q8">
-        <v>9.649935113914999</v>
+        <v>17.7117959427085</v>
       </c>
       <c r="R8">
-        <v>57.89961068349</v>
+        <v>106.270775656251</v>
       </c>
       <c r="S8">
-        <v>0.0113008703834528</v>
+        <v>0.02216878610649039</v>
       </c>
       <c r="T8">
-        <v>0.009398996183934758</v>
+        <v>0.01948882872369404</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.132881</v>
       </c>
       <c r="I9">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J9">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>95.50396499999999</v>
       </c>
       <c r="O9">
-        <v>0.1718515107969138</v>
+        <v>0.1526454509321794</v>
       </c>
       <c r="P9">
-        <v>0.183072823023454</v>
+        <v>0.1670846902488932</v>
       </c>
       <c r="Q9">
         <v>12.021625263685</v>
@@ -1013,10 +1013,10 @@
         <v>108.194627373165</v>
       </c>
       <c r="S9">
-        <v>0.01407831527358625</v>
+        <v>0.0150467428591129</v>
       </c>
       <c r="T9">
-        <v>0.01756351861088756</v>
+        <v>0.01984164083378911</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.132881</v>
       </c>
       <c r="I10">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J10">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>48.960351</v>
+        <v>40.94164133333334</v>
       </c>
       <c r="N10">
-        <v>146.881053</v>
+        <v>122.824924</v>
       </c>
       <c r="O10">
-        <v>0.2643003446557592</v>
+        <v>0.1963129584168644</v>
       </c>
       <c r="P10">
-        <v>0.2815582475698005</v>
+        <v>0.214882852051052</v>
       </c>
       <c r="Q10">
-        <v>18.488750467077</v>
+        <v>15.46066919178267</v>
       </c>
       <c r="R10">
-        <v>166.398754203693</v>
+        <v>139.146022726044</v>
       </c>
       <c r="S10">
-        <v>0.02165185258905566</v>
+        <v>0.01935118660380315</v>
       </c>
       <c r="T10">
-        <v>0.02701194770240442</v>
+        <v>0.02551776805754027</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.132881</v>
       </c>
       <c r="I11">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J11">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.509240999999999</v>
+        <v>7.165723</v>
       </c>
       <c r="N11">
-        <v>17.018482</v>
+        <v>14.331446</v>
       </c>
       <c r="O11">
-        <v>0.04593503279947721</v>
+        <v>0.03435925467356532</v>
       </c>
       <c r="P11">
-        <v>0.03262295490364025</v>
+        <v>0.02507294033005582</v>
       </c>
       <c r="Q11">
-        <v>3.213319151107</v>
+        <v>2.705970479321</v>
       </c>
       <c r="R11">
-        <v>19.279914906642</v>
+        <v>16.235822875926</v>
       </c>
       <c r="S11">
-        <v>0.003763061906495494</v>
+        <v>0.003386899948519343</v>
       </c>
       <c r="T11">
-        <v>0.003129759328170877</v>
+        <v>0.002977461764659128</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.132881</v>
       </c>
       <c r="I12">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J12">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.87274933333333</v>
+        <v>49.85523499999999</v>
       </c>
       <c r="N12">
-        <v>89.61824799999999</v>
+        <v>149.565705</v>
       </c>
       <c r="O12">
-        <v>0.1612606483277683</v>
+        <v>0.2390531585124693</v>
       </c>
       <c r="P12">
-        <v>0.1717904136836204</v>
+        <v>0.2616659893836066</v>
       </c>
       <c r="Q12">
-        <v>11.28075671249867</v>
+        <v>18.826682827345</v>
       </c>
       <c r="R12">
-        <v>101.526810412488</v>
+        <v>169.440145446105</v>
       </c>
       <c r="S12">
-        <v>0.01321069705965025</v>
+        <v>0.02356422273857358</v>
       </c>
       <c r="T12">
-        <v>0.01648111433512878</v>
+        <v>0.03107335909731555</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.132881</v>
       </c>
       <c r="I13">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J13">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>40.513986</v>
+        <v>31.85278333333333</v>
       </c>
       <c r="N13">
-        <v>121.541958</v>
+        <v>95.55834999999999</v>
       </c>
       <c r="O13">
-        <v>0.218704732390064</v>
+        <v>0.1527323753111719</v>
       </c>
       <c r="P13">
-        <v>0.2329853987408594</v>
+        <v>0.1671798370931021</v>
       </c>
       <c r="Q13">
-        <v>15.299174991222</v>
+        <v>12.02847101181667</v>
       </c>
       <c r="R13">
-        <v>137.692574920998</v>
+        <v>108.25623910635</v>
       </c>
       <c r="S13">
-        <v>0.0179165964857373</v>
+        <v>0.01505531126892073</v>
       </c>
       <c r="T13">
-        <v>0.02235199806978396</v>
+        <v>0.01985293971166026</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H14">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I14">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J14">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.554145</v>
+        <v>46.9028855</v>
       </c>
       <c r="N14">
-        <v>51.10829</v>
+        <v>93.80577099999999</v>
       </c>
       <c r="O14">
-        <v>0.1379477310300175</v>
+        <v>0.2248968021537497</v>
       </c>
       <c r="P14">
-        <v>0.09797016207862534</v>
+        <v>0.1641136908932902</v>
       </c>
       <c r="Q14">
-        <v>32.16151842973166</v>
+        <v>10.35060694361583</v>
       </c>
       <c r="R14">
-        <v>192.96911057839</v>
+        <v>62.10364166169499</v>
       </c>
       <c r="S14">
-        <v>0.03766379222439894</v>
+        <v>0.01295523007082953</v>
       </c>
       <c r="T14">
-        <v>0.03132518358125594</v>
+        <v>0.01138908818523571</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H15">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I15">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J15">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>95.50396499999999</v>
       </c>
       <c r="O15">
-        <v>0.1718515107969138</v>
+        <v>0.1526454509321794</v>
       </c>
       <c r="P15">
-        <v>0.183072823023454</v>
+        <v>0.1670846902488932</v>
       </c>
       <c r="Q15">
-        <v>40.06594012386833</v>
+        <v>7.025324723158333</v>
       </c>
       <c r="R15">
-        <v>360.593461114815</v>
+        <v>63.227922508425</v>
       </c>
       <c r="S15">
-        <v>0.04692052234404331</v>
+        <v>0.008793174990278234</v>
       </c>
       <c r="T15">
-        <v>0.05853608556190868</v>
+        <v>0.01159526826366221</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H16">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I16">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J16">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>48.960351</v>
+        <v>40.94164133333334</v>
       </c>
       <c r="N16">
-        <v>146.881053</v>
+        <v>122.824924</v>
       </c>
       <c r="O16">
-        <v>0.2643003446557592</v>
+        <v>0.1963129584168644</v>
       </c>
       <c r="P16">
-        <v>0.2815582475698005</v>
+        <v>0.214882852051052</v>
       </c>
       <c r="Q16">
-        <v>61.619718875847</v>
+        <v>9.035069645508889</v>
       </c>
       <c r="R16">
-        <v>554.5774698826231</v>
+        <v>81.31562680958001</v>
       </c>
       <c r="S16">
-        <v>0.07216177599750033</v>
+        <v>0.01130865142509659</v>
       </c>
       <c r="T16">
-        <v>0.09002602023728801</v>
+        <v>0.01491234362095776</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H17">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I17">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J17">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.509240999999999</v>
+        <v>7.165723</v>
       </c>
       <c r="N17">
-        <v>17.018482</v>
+        <v>14.331446</v>
       </c>
       <c r="O17">
-        <v>0.04593503279947721</v>
+        <v>0.03435925467356532</v>
       </c>
       <c r="P17">
-        <v>0.03262295490364025</v>
+        <v>0.02507294033005582</v>
       </c>
       <c r="Q17">
-        <v>10.70942155351033</v>
+        <v>1.581343694511667</v>
       </c>
       <c r="R17">
-        <v>64.256529321062</v>
+        <v>9.48806216707</v>
       </c>
       <c r="S17">
-        <v>0.01254161643879444</v>
+        <v>0.00197927247117525</v>
       </c>
       <c r="T17">
-        <v>0.01043093151667371</v>
+        <v>0.001740000647891307</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H18">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I18">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J18">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>29.87274933333333</v>
+        <v>49.85523499999999</v>
       </c>
       <c r="N18">
-        <v>89.61824799999999</v>
+        <v>149.565705</v>
       </c>
       <c r="O18">
-        <v>0.1612606483277683</v>
+        <v>0.2390531585124693</v>
       </c>
       <c r="P18">
-        <v>0.1717904136836204</v>
+        <v>0.2616659893836066</v>
       </c>
       <c r="Q18">
-        <v>37.59675693437422</v>
+        <v>11.00213635185833</v>
       </c>
       <c r="R18">
-        <v>338.370812409368</v>
+        <v>99.01922716672499</v>
       </c>
       <c r="S18">
-        <v>0.04402890505873777</v>
+        <v>0.01377071011249986</v>
       </c>
       <c r="T18">
-        <v>0.05492862451141534</v>
+        <v>0.01815897876615661</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H19">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I19">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J19">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>40.513986</v>
+        <v>31.85278333333333</v>
       </c>
       <c r="N19">
-        <v>121.541958</v>
+        <v>95.55834999999999</v>
       </c>
       <c r="O19">
-        <v>0.218704732390064</v>
+        <v>0.1527323753111719</v>
       </c>
       <c r="P19">
-        <v>0.2329853987408594</v>
+        <v>0.1671798370931021</v>
       </c>
       <c r="Q19">
-        <v>50.989430771442</v>
+        <v>7.029325313972222</v>
       </c>
       <c r="R19">
-        <v>458.904876942978</v>
+        <v>63.26392782575</v>
       </c>
       <c r="S19">
-        <v>0.05971283135813024</v>
+        <v>0.008798182288371524</v>
       </c>
       <c r="T19">
-        <v>0.07449523643180586</v>
+        <v>0.01160187122160767</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H20">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I20">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J20">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.554145</v>
+        <v>46.9028855</v>
       </c>
       <c r="N20">
-        <v>51.10829</v>
+        <v>93.80577099999999</v>
       </c>
       <c r="O20">
-        <v>0.1379477310300175</v>
+        <v>0.2248968021537497</v>
       </c>
       <c r="P20">
-        <v>0.09797016207862534</v>
+        <v>0.1641136908932902</v>
       </c>
       <c r="Q20">
-        <v>49.429408227645</v>
+        <v>58.79180546509725</v>
       </c>
       <c r="R20">
-        <v>197.71763291058</v>
+        <v>235.167221860389</v>
       </c>
       <c r="S20">
-        <v>0.05788591621781053</v>
+        <v>0.07358615492104779</v>
       </c>
       <c r="T20">
-        <v>0.03209602370872348</v>
+        <v>0.04312694322556675</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H21">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I21">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J21">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>95.50396499999999</v>
       </c>
       <c r="O21">
-        <v>0.1718515107969138</v>
+        <v>0.1526454509321794</v>
       </c>
       <c r="P21">
-        <v>0.183072823023454</v>
+        <v>0.1670846902488932</v>
       </c>
       <c r="Q21">
-        <v>61.577805001155</v>
+        <v>39.9040874320725</v>
       </c>
       <c r="R21">
-        <v>369.46683000693</v>
+        <v>239.424524592435</v>
       </c>
       <c r="S21">
-        <v>0.07211269139127539</v>
+        <v>0.04994553809888965</v>
       </c>
       <c r="T21">
-        <v>0.05997652288732606</v>
+        <v>0.04390768321035936</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H22">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I22">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J22">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>48.960351</v>
+        <v>40.94164133333334</v>
       </c>
       <c r="N22">
-        <v>146.881053</v>
+        <v>122.824924</v>
       </c>
       <c r="O22">
-        <v>0.2643003446557592</v>
+        <v>0.1963129584168644</v>
       </c>
       <c r="P22">
-        <v>0.2815582475698005</v>
+        <v>0.214882852051052</v>
       </c>
       <c r="Q22">
-        <v>94.70405589965101</v>
+        <v>51.319508107686</v>
       </c>
       <c r="R22">
-        <v>568.2243353979061</v>
+        <v>307.917048646116</v>
       </c>
       <c r="S22">
-        <v>0.1109062649515606</v>
+        <v>0.06423353125846898</v>
       </c>
       <c r="T22">
-        <v>0.09224135183255537</v>
+        <v>0.05646841838795347</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H23">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I23">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J23">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.509240999999999</v>
+        <v>7.165723</v>
       </c>
       <c r="N23">
-        <v>17.018482</v>
+        <v>14.331446</v>
       </c>
       <c r="O23">
-        <v>0.04593503279947721</v>
+        <v>0.03435925467356532</v>
       </c>
       <c r="P23">
-        <v>0.03262295490364025</v>
+        <v>0.02507294033005582</v>
       </c>
       <c r="Q23">
-        <v>16.459433375541</v>
+        <v>8.9820868831785</v>
       </c>
       <c r="R23">
-        <v>65.837733502164</v>
+        <v>35.928347532714</v>
       </c>
       <c r="S23">
-        <v>0.01927535480459856</v>
+        <v>0.01124233609890196</v>
       </c>
       <c r="T23">
-        <v>0.01068761255284581</v>
+        <v>0.006588842577524103</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H24">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I24">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J24">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.87274933333333</v>
+        <v>49.85523499999999</v>
       </c>
       <c r="N24">
-        <v>89.61824799999999</v>
+        <v>149.565705</v>
       </c>
       <c r="O24">
-        <v>0.1612606483277683</v>
+        <v>0.2390531585124693</v>
       </c>
       <c r="P24">
-        <v>0.1717904136836204</v>
+        <v>0.2616659893836066</v>
       </c>
       <c r="Q24">
-        <v>57.78288890821599</v>
+        <v>62.4925150401825</v>
       </c>
       <c r="R24">
-        <v>346.697333449296</v>
+        <v>374.955090241095</v>
       </c>
       <c r="S24">
-        <v>0.0676685314693561</v>
+        <v>0.07821810976502169</v>
       </c>
       <c r="T24">
-        <v>0.05628029058577896</v>
+        <v>0.06876241833806648</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H25">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I25">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J25">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>40.513986</v>
+        <v>31.85278333333333</v>
       </c>
       <c r="N25">
-        <v>121.541958</v>
+        <v>95.55834999999999</v>
       </c>
       <c r="O25">
-        <v>0.218704732390064</v>
+        <v>0.1527323753111719</v>
       </c>
       <c r="P25">
-        <v>0.2329853987408594</v>
+        <v>0.1671798370931021</v>
       </c>
       <c r="Q25">
-        <v>78.366243633786</v>
+        <v>39.926810926275</v>
       </c>
       <c r="R25">
-        <v>470.197461802716</v>
+        <v>239.56086555765</v>
       </c>
       <c r="S25">
-        <v>0.09177333850322711</v>
+        <v>0.04997397972526095</v>
       </c>
       <c r="T25">
-        <v>0.07632839145220227</v>
+        <v>0.04393268656337612</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H26">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I26">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J26">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.554145</v>
+        <v>46.9028855</v>
       </c>
       <c r="N26">
-        <v>51.10829</v>
+        <v>93.80577099999999</v>
       </c>
       <c r="O26">
-        <v>0.1379477310300175</v>
+        <v>0.2248968021537497</v>
       </c>
       <c r="P26">
-        <v>0.09797016207862534</v>
+        <v>0.1641136908932902</v>
       </c>
       <c r="Q26">
-        <v>14.76509128246833</v>
+        <v>11.99821150545983</v>
       </c>
       <c r="R26">
-        <v>88.59054769481</v>
+        <v>71.989269032759</v>
       </c>
       <c r="S26">
-        <v>0.01729114038729829</v>
+        <v>0.01501743727092061</v>
       </c>
       <c r="T26">
-        <v>0.01438113676217933</v>
+        <v>0.01320199768430735</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H27">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I27">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J27">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>95.50396499999999</v>
       </c>
       <c r="O27">
-        <v>0.1718515107969138</v>
+        <v>0.1526454509321794</v>
       </c>
       <c r="P27">
-        <v>0.183072823023454</v>
+        <v>0.1670846902488932</v>
       </c>
       <c r="Q27">
-        <v>18.39394693193167</v>
+        <v>8.143612483998332</v>
       </c>
       <c r="R27">
-        <v>165.545522387385</v>
+        <v>73.292512355985</v>
       </c>
       <c r="S27">
-        <v>0.02154082982569784</v>
+        <v>0.0101928682938686</v>
       </c>
       <c r="T27">
-        <v>0.02687344033610571</v>
+        <v>0.01344099740699504</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H28">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I28">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J28">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>48.960351</v>
+        <v>40.94164133333334</v>
       </c>
       <c r="N28">
-        <v>146.881053</v>
+        <v>122.824924</v>
       </c>
       <c r="O28">
-        <v>0.2643003446557592</v>
+        <v>0.1963129584168644</v>
       </c>
       <c r="P28">
-        <v>0.2815582475698005</v>
+        <v>0.214882852051052</v>
       </c>
       <c r="Q28">
-        <v>28.289111286513</v>
+        <v>10.47326762226622</v>
       </c>
       <c r="R28">
-        <v>254.602001578617</v>
+        <v>94.25940860039601</v>
       </c>
       <c r="S28">
-        <v>0.0331288838876198</v>
+        <v>0.0131087570399451</v>
       </c>
       <c r="T28">
-        <v>0.04133021298434972</v>
+        <v>0.01728608320082169</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H29">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I29">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J29">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.509240999999999</v>
+        <v>7.165723</v>
       </c>
       <c r="N29">
-        <v>17.018482</v>
+        <v>14.331446</v>
       </c>
       <c r="O29">
-        <v>0.04593503279947721</v>
+        <v>0.03435925467356532</v>
       </c>
       <c r="P29">
-        <v>0.03262295490364025</v>
+        <v>0.02507294033005582</v>
       </c>
       <c r="Q29">
-        <v>4.916608249249666</v>
+        <v>1.833061212055667</v>
       </c>
       <c r="R29">
-        <v>29.499649495498</v>
+        <v>10.998367272334</v>
       </c>
       <c r="S29">
-        <v>0.005757754005088194</v>
+        <v>0.002294332097186068</v>
       </c>
       <c r="T29">
-        <v>0.004788755740540082</v>
+        <v>0.002016973101844404</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H30">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I30">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J30">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>29.87274933333333</v>
+        <v>49.85523499999999</v>
       </c>
       <c r="N30">
-        <v>89.61824799999999</v>
+        <v>149.565705</v>
       </c>
       <c r="O30">
-        <v>0.1612606483277683</v>
+        <v>0.2390531585124693</v>
       </c>
       <c r="P30">
-        <v>0.1717904136836204</v>
+        <v>0.2616659893836066</v>
       </c>
       <c r="Q30">
-        <v>17.26036503138578</v>
+        <v>12.75345104693833</v>
       </c>
       <c r="R30">
-        <v>155.343285282472</v>
+        <v>114.781059422445</v>
       </c>
       <c r="S30">
-        <v>0.02021331187082323</v>
+        <v>0.01596272502764261</v>
       </c>
       <c r="T30">
-        <v>0.02521728433635531</v>
+        <v>0.02104951614396726</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H31">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I31">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J31">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>40.513986</v>
+        <v>31.85278333333333</v>
       </c>
       <c r="N31">
-        <v>121.541958</v>
+        <v>95.55834999999999</v>
       </c>
       <c r="O31">
-        <v>0.218704732390064</v>
+        <v>0.1527323753111719</v>
       </c>
       <c r="P31">
-        <v>0.2329853987408594</v>
+        <v>0.1671798370931021</v>
       </c>
       <c r="Q31">
-        <v>23.408832559518</v>
+        <v>8.148249886905555</v>
       </c>
       <c r="R31">
-        <v>210.679493035662</v>
+        <v>73.33424898215</v>
       </c>
       <c r="S31">
-        <v>0.02741367475120131</v>
+        <v>0.01019867265122865</v>
       </c>
       <c r="T31">
-        <v>0.03420015657618473</v>
+        <v>0.01344865142056378</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H32">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I32">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J32">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>25.554145</v>
+        <v>46.9028855</v>
       </c>
       <c r="N32">
-        <v>51.10829</v>
+        <v>93.80577099999999</v>
       </c>
       <c r="O32">
-        <v>0.1379477310300175</v>
+        <v>0.2248968021537497</v>
       </c>
       <c r="P32">
-        <v>0.09797016207862534</v>
+        <v>0.1641136908932902</v>
       </c>
       <c r="Q32">
-        <v>9.590794304336667</v>
+        <v>48.02425532082916</v>
       </c>
       <c r="R32">
-        <v>57.54476582602</v>
+        <v>288.145531924975</v>
       </c>
       <c r="S32">
-        <v>0.01123161161481575</v>
+        <v>0.06010906220773336</v>
       </c>
       <c r="T32">
-        <v>0.009341393284331836</v>
+        <v>0.05284255134589518</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H33">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I33">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J33">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>95.50396499999999</v>
       </c>
       <c r="O33">
-        <v>0.1718515107969138</v>
+        <v>0.1526454509321794</v>
       </c>
       <c r="P33">
-        <v>0.183072823023454</v>
+        <v>0.1670846902488932</v>
       </c>
       <c r="Q33">
-        <v>11.94794926046333</v>
+        <v>32.59576854329166</v>
       </c>
       <c r="R33">
-        <v>107.53154334417</v>
+        <v>293.361916889625</v>
       </c>
       <c r="S33">
-        <v>0.01399203459366972</v>
+        <v>0.04079815638969014</v>
       </c>
       <c r="T33">
-        <v>0.01745587843533921</v>
+        <v>0.05379917589770757</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H34">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I34">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J34">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>48.960351</v>
+        <v>40.94164133333334</v>
       </c>
       <c r="N34">
-        <v>146.881053</v>
+        <v>122.824924</v>
       </c>
       <c r="O34">
-        <v>0.2643003446557592</v>
+        <v>0.1963129584168644</v>
       </c>
       <c r="P34">
-        <v>0.2815582475698005</v>
+        <v>0.214882852051052</v>
       </c>
       <c r="Q34">
-        <v>18.375439894746</v>
+        <v>41.92048774154444</v>
       </c>
       <c r="R34">
-        <v>165.378959052714</v>
+        <v>377.2843896739</v>
       </c>
       <c r="S34">
-        <v>0.0215191565578522</v>
+        <v>0.05246934468012722</v>
       </c>
       <c r="T34">
-        <v>0.02684640167162291</v>
+        <v>0.06918958486067636</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H35">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I35">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J35">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.509240999999999</v>
+        <v>7.165723</v>
       </c>
       <c r="N35">
-        <v>17.018482</v>
+        <v>14.331446</v>
       </c>
       <c r="O35">
-        <v>0.04593503279947721</v>
+        <v>0.03435925467356532</v>
       </c>
       <c r="P35">
-        <v>0.03262295490364025</v>
+        <v>0.02507294033005582</v>
       </c>
       <c r="Q35">
-        <v>3.193625931019333</v>
+        <v>7.337043494058332</v>
       </c>
       <c r="R35">
-        <v>19.161755586116</v>
+        <v>44.02226096435</v>
       </c>
       <c r="S35">
-        <v>0.003739999520581353</v>
+        <v>0.00918333456414714</v>
       </c>
       <c r="T35">
-        <v>0.003110578214695155</v>
+        <v>0.008073172503597077</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H36">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I36">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J36">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>29.87274933333333</v>
+        <v>49.85523499999999</v>
       </c>
       <c r="N36">
-        <v>89.61824799999999</v>
+        <v>149.565705</v>
       </c>
       <c r="O36">
-        <v>0.1612606483277683</v>
+        <v>0.2390531585124693</v>
       </c>
       <c r="P36">
-        <v>0.1717904136836204</v>
+        <v>0.2616659893836066</v>
       </c>
       <c r="Q36">
-        <v>11.21162121295822</v>
+        <v>51.04719057679165</v>
       </c>
       <c r="R36">
-        <v>100.904590916624</v>
+        <v>459.4247151911249</v>
       </c>
       <c r="S36">
-        <v>0.01312973368425146</v>
+        <v>0.06389268783892124</v>
       </c>
       <c r="T36">
-        <v>0.01638010780679191</v>
+        <v>0.08425316866749605</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H37">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I37">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J37">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>40.513986</v>
+        <v>31.85278333333333</v>
       </c>
       <c r="N37">
-        <v>121.541958</v>
+        <v>95.55834999999999</v>
       </c>
       <c r="O37">
-        <v>0.218704732390064</v>
+        <v>0.1527323753111719</v>
       </c>
       <c r="P37">
-        <v>0.2329853987408594</v>
+        <v>0.1671798370931021</v>
       </c>
       <c r="Q37">
-        <v>15.205412122956</v>
+        <v>32.61433029486111</v>
       </c>
       <c r="R37">
-        <v>136.848709106604</v>
+        <v>293.52897265375</v>
       </c>
       <c r="S37">
-        <v>0.01780679242917666</v>
+        <v>0.04082138901396132</v>
       </c>
       <c r="T37">
-        <v>0.02221501111122564</v>
+        <v>0.05382981198890228</v>
       </c>
     </row>
   </sheetData>
